--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4935515</v>
+        <v>5.497780499999999</v>
       </c>
       <c r="H2">
-        <v>0.9871030000000001</v>
+        <v>10.995561</v>
       </c>
       <c r="I2">
-        <v>0.002731098346029623</v>
+        <v>0.0256428667727535</v>
       </c>
       <c r="J2">
-        <v>0.001948454831259113</v>
+        <v>0.01843356332267555</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.269519</v>
+        <v>3.2967085</v>
       </c>
       <c r="N2">
-        <v>8.539038</v>
+        <v>6.593417000000001</v>
       </c>
       <c r="O2">
-        <v>0.4153757651104201</v>
+        <v>0.08107605878506954</v>
       </c>
       <c r="P2">
-        <v>0.3227301633327102</v>
+        <v>0.05555201876985093</v>
       </c>
       <c r="Q2">
-        <v>2.1072275067285</v>
+        <v>18.12457970548425</v>
       </c>
       <c r="R2">
-        <v>8.428910026914</v>
+        <v>72.49831882193699</v>
       </c>
       <c r="S2">
-        <v>0.001134432065073858</v>
+        <v>0.00207902257388547</v>
       </c>
       <c r="T2">
-        <v>0.0006288251459386618</v>
+        <v>0.001024021655696508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4935515</v>
+        <v>5.497780499999999</v>
       </c>
       <c r="H3">
-        <v>0.9871030000000001</v>
+        <v>10.995561</v>
       </c>
       <c r="I3">
-        <v>0.002731098346029623</v>
+        <v>0.0256428667727535</v>
       </c>
       <c r="J3">
-        <v>0.001948454831259113</v>
+        <v>0.01843356332267555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7985720000000001</v>
+        <v>1.327303666666667</v>
       </c>
       <c r="N3">
-        <v>2.395716</v>
+        <v>3.981911</v>
       </c>
       <c r="O3">
-        <v>0.0776919965681751</v>
+        <v>0.03264242201101645</v>
       </c>
       <c r="P3">
-        <v>0.09054530685760941</v>
+        <v>0.03354909823114113</v>
       </c>
       <c r="Q3">
-        <v>0.3941364084580001</v>
+        <v>7.297224216178499</v>
       </c>
       <c r="R3">
-        <v>2.364818450748</v>
+        <v>43.78334529707099</v>
       </c>
       <c r="S3">
-        <v>0.0002121844833270822</v>
+        <v>0.0008370452787684913</v>
       </c>
       <c r="T3">
-        <v>0.0001764234405945479</v>
+        <v>0.0006184294266624023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4935515</v>
+        <v>5.497780499999999</v>
       </c>
       <c r="H4">
-        <v>0.9871030000000001</v>
+        <v>10.995561</v>
       </c>
       <c r="I4">
-        <v>0.002731098346029623</v>
+        <v>0.0256428667727535</v>
       </c>
       <c r="J4">
-        <v>0.001948454831259113</v>
+        <v>0.01843356332267555</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.107799</v>
+        <v>35.14003366666666</v>
       </c>
       <c r="N4">
-        <v>0.215598</v>
+        <v>105.420101</v>
       </c>
       <c r="O4">
-        <v>0.01048761982395164</v>
+        <v>0.8641999847023141</v>
       </c>
       <c r="P4">
-        <v>0.008148456272733026</v>
+        <v>0.888204011587858</v>
       </c>
       <c r="Q4">
-        <v>0.0532043581485</v>
+        <v>193.1921918619434</v>
       </c>
       <c r="R4">
-        <v>0.212817432594</v>
+        <v>1159.153151171661</v>
       </c>
       <c r="S4">
-        <v>2.864272115498181E-05</v>
+        <v>0.02216056507273706</v>
       </c>
       <c r="T4">
-        <v>1.587689899191029E-05</v>
+        <v>0.01637276489105923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4935515</v>
+        <v>5.497780499999999</v>
       </c>
       <c r="H5">
-        <v>0.9871030000000001</v>
+        <v>10.995561</v>
       </c>
       <c r="I5">
-        <v>0.002731098346029623</v>
+        <v>0.0256428667727535</v>
       </c>
       <c r="J5">
-        <v>0.001948454831259113</v>
+        <v>0.01843356332267555</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,90 +747,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.630111</v>
+        <v>0.8978776666666667</v>
       </c>
       <c r="N5">
-        <v>7.890333</v>
+        <v>2.693633</v>
       </c>
       <c r="O5">
-        <v>0.2558799642185295</v>
+        <v>0.02208153450159992</v>
       </c>
       <c r="P5">
-        <v>0.2982125688911881</v>
+        <v>0.02269487141114992</v>
       </c>
       <c r="Q5">
-        <v>1.2980952292165</v>
+        <v>4.9363343271855</v>
       </c>
       <c r="R5">
-        <v>7.788571375299001</v>
+        <v>29.618005963113</v>
       </c>
       <c r="S5">
-        <v>0.0006988333470593452</v>
+        <v>0.0005662338473624868</v>
       </c>
       <c r="T5">
-        <v>0.0005810537205982266</v>
+        <v>0.0004183473492574111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4935515</v>
+        <v>105.3271713333333</v>
       </c>
       <c r="H6">
-        <v>0.9871030000000001</v>
+        <v>315.981514</v>
       </c>
       <c r="I6">
-        <v>0.002731098346029623</v>
+        <v>0.4912692716727504</v>
       </c>
       <c r="J6">
-        <v>0.001948454831259113</v>
+        <v>0.5297287921110976</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.472689666666667</v>
+        <v>3.2967085</v>
       </c>
       <c r="N6">
-        <v>7.418069</v>
+        <v>6.593417000000001</v>
       </c>
       <c r="O6">
-        <v>0.2405646542789237</v>
+        <v>0.08107605878506954</v>
       </c>
       <c r="P6">
-        <v>0.2803635046457592</v>
+        <v>0.05555201876985093</v>
       </c>
       <c r="Q6">
-        <v>1.220399694017833</v>
+        <v>347.2329810155564</v>
       </c>
       <c r="R6">
-        <v>7.322398164107001</v>
+        <v>2083.397886093338</v>
       </c>
       <c r="S6">
-        <v>0.0006570057294143567</v>
+        <v>0.03983017634943821</v>
       </c>
       <c r="T6">
-        <v>0.0005462756251357663</v>
+        <v>0.02942750380228615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>105.3271713333334</v>
+        <v>105.3271713333333</v>
       </c>
       <c r="H7">
-        <v>315.9815140000001</v>
+        <v>315.981514</v>
       </c>
       <c r="I7">
-        <v>0.5828345439542691</v>
+        <v>0.4912692716727504</v>
       </c>
       <c r="J7">
-        <v>0.6237198220873295</v>
+        <v>0.5297287921110976</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.269519</v>
+        <v>1.327303666666667</v>
       </c>
       <c r="N7">
-        <v>8.539038</v>
+        <v>3.981911</v>
       </c>
       <c r="O7">
-        <v>0.4153757651104201</v>
+        <v>0.03264242201101645</v>
       </c>
       <c r="P7">
-        <v>0.3227301633327102</v>
+        <v>0.03354909823114113</v>
       </c>
       <c r="Q7">
-        <v>449.6963592239221</v>
+        <v>139.8011407103616</v>
       </c>
       <c r="R7">
-        <v>2698.178155343533</v>
+        <v>1258.210266393254</v>
       </c>
       <c r="S7">
-        <v>0.2420953446277873</v>
+        <v>0.01603621888698661</v>
       </c>
       <c r="T7">
-        <v>0.2012932000560928</v>
+        <v>0.01777192328239895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>105.3271713333334</v>
+        <v>105.3271713333333</v>
       </c>
       <c r="H8">
-        <v>315.9815140000001</v>
+        <v>315.981514</v>
       </c>
       <c r="I8">
-        <v>0.5828345439542691</v>
+        <v>0.4912692716727504</v>
       </c>
       <c r="J8">
-        <v>0.6237198220873295</v>
+        <v>0.5297287921110976</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7985720000000001</v>
+        <v>35.14003366666666</v>
       </c>
       <c r="N8">
-        <v>2.395716</v>
+        <v>105.420101</v>
       </c>
       <c r="O8">
-        <v>0.0776919965681751</v>
+        <v>0.8641999847023141</v>
       </c>
       <c r="P8">
-        <v>0.09054530685760941</v>
+        <v>0.888204011587858</v>
       </c>
       <c r="Q8">
-        <v>84.11132986600269</v>
+        <v>3701.200346668101</v>
       </c>
       <c r="R8">
-        <v>757.0019687940242</v>
+        <v>33310.80312001291</v>
       </c>
       <c r="S8">
-        <v>0.04528157938870898</v>
+        <v>0.4245548970643078</v>
       </c>
       <c r="T8">
-        <v>0.05647490268407079</v>
+        <v>0.4705072382066673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>105.3271713333334</v>
+        <v>105.3271713333333</v>
       </c>
       <c r="H9">
-        <v>315.9815140000001</v>
+        <v>315.981514</v>
       </c>
       <c r="I9">
-        <v>0.5828345439542691</v>
+        <v>0.4912692716727504</v>
       </c>
       <c r="J9">
-        <v>0.6237198220873295</v>
+        <v>0.5297287921110976</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.107799</v>
+        <v>0.8978776666666667</v>
       </c>
       <c r="N9">
-        <v>0.215598</v>
+        <v>2.693633</v>
       </c>
       <c r="O9">
-        <v>0.01048761982395164</v>
+        <v>0.02208153450159992</v>
       </c>
       <c r="P9">
-        <v>0.008148456272733026</v>
+        <v>0.02269487141114992</v>
       </c>
       <c r="Q9">
-        <v>11.354163742562</v>
+        <v>94.57091483337356</v>
       </c>
       <c r="R9">
-        <v>68.12498245537202</v>
+        <v>851.138233500362</v>
       </c>
       <c r="S9">
-        <v>0.006112547117258605</v>
+        <v>0.0108479793720177</v>
       </c>
       <c r="T9">
-        <v>0.005082353696715426</v>
+        <v>0.01202212681974513</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.3271713333334</v>
+        <v>10.03782666666667</v>
       </c>
       <c r="H10">
-        <v>315.9815140000001</v>
+        <v>30.11348</v>
       </c>
       <c r="I10">
-        <v>0.5828345439542691</v>
+        <v>0.04681864834387727</v>
       </c>
       <c r="J10">
-        <v>0.6237198220873295</v>
+        <v>0.05048389440485336</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.630111</v>
+        <v>3.2967085</v>
       </c>
       <c r="N10">
-        <v>7.890333</v>
+        <v>6.593417000000001</v>
       </c>
       <c r="O10">
-        <v>0.2558799642185295</v>
+        <v>0.08107605878506954</v>
       </c>
       <c r="P10">
-        <v>0.2982125688911881</v>
+        <v>0.05555201876985093</v>
       </c>
       <c r="Q10">
-        <v>277.0221519226847</v>
+        <v>33.09178849352666</v>
       </c>
       <c r="R10">
-        <v>2493.199367304162</v>
+        <v>198.55073096116</v>
       </c>
       <c r="S10">
-        <v>0.1491356822523414</v>
+        <v>0.003795871485365693</v>
       </c>
       <c r="T10">
-        <v>0.1860010904130174</v>
+        <v>0.002804482249553587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.3271713333334</v>
+        <v>10.03782666666667</v>
       </c>
       <c r="H11">
-        <v>315.9815140000001</v>
+        <v>30.11348</v>
       </c>
       <c r="I11">
-        <v>0.5828345439542691</v>
+        <v>0.04681864834387727</v>
       </c>
       <c r="J11">
-        <v>0.6237198220873295</v>
+        <v>0.05048389440485336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.472689666666667</v>
+        <v>1.327303666666667</v>
       </c>
       <c r="N11">
-        <v>7.418069</v>
+        <v>3.981911</v>
       </c>
       <c r="O11">
-        <v>0.2405646542789237</v>
+        <v>0.03264242201101645</v>
       </c>
       <c r="P11">
-        <v>0.2803635046457592</v>
+        <v>0.03354909823114113</v>
       </c>
       <c r="Q11">
-        <v>260.441408175163</v>
+        <v>13.32324414003111</v>
       </c>
       <c r="R11">
-        <v>2343.972673576467</v>
+        <v>119.90919726028</v>
       </c>
       <c r="S11">
-        <v>0.1402093905681729</v>
+        <v>0.001528274077226218</v>
       </c>
       <c r="T11">
-        <v>0.1748682752374331</v>
+        <v>0.001693689132478982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.93205066666667</v>
+        <v>10.03782666666667</v>
       </c>
       <c r="H12">
-        <v>104.796152</v>
+        <v>30.11348</v>
       </c>
       <c r="I12">
-        <v>0.1932987049966545</v>
+        <v>0.04681864834387727</v>
       </c>
       <c r="J12">
-        <v>0.2068584217267746</v>
+        <v>0.05048389440485336</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.269519</v>
+        <v>35.14003366666666</v>
       </c>
       <c r="N12">
-        <v>8.539038</v>
+        <v>105.420101</v>
       </c>
       <c r="O12">
-        <v>0.4153757651104201</v>
+        <v>0.8641999847023141</v>
       </c>
       <c r="P12">
-        <v>0.3227301633327102</v>
+        <v>0.888204011587858</v>
       </c>
       <c r="Q12">
-        <v>149.143054030296</v>
+        <v>352.729567006831</v>
       </c>
       <c r="R12">
-        <v>894.858324181776</v>
+        <v>3174.56610306148</v>
       </c>
       <c r="S12">
-        <v>0.08029159748283875</v>
+        <v>0.04046067518256176</v>
       </c>
       <c r="T12">
-        <v>0.06675945223062861</v>
+        <v>0.04483999753096857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.93205066666667</v>
+        <v>10.03782666666667</v>
       </c>
       <c r="H13">
-        <v>104.796152</v>
+        <v>30.11348</v>
       </c>
       <c r="I13">
-        <v>0.1932987049966545</v>
+        <v>0.04681864834387727</v>
       </c>
       <c r="J13">
-        <v>0.2068584217267746</v>
+        <v>0.05048389440485336</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7985720000000001</v>
+        <v>0.8978776666666667</v>
       </c>
       <c r="N13">
-        <v>2.395716</v>
+        <v>2.693633</v>
       </c>
       <c r="O13">
-        <v>0.0776919965681751</v>
+        <v>0.02208153450159992</v>
       </c>
       <c r="P13">
-        <v>0.09054530685760941</v>
+        <v>0.02269487141114992</v>
       </c>
       <c r="Q13">
-        <v>27.89575756498134</v>
+        <v>9.01274038587111</v>
       </c>
       <c r="R13">
-        <v>251.061818084832</v>
+        <v>81.11466347284001</v>
       </c>
       <c r="S13">
-        <v>0.01501776232523278</v>
+        <v>0.0010338275987236</v>
       </c>
       <c r="T13">
-        <v>0.01873005927133158</v>
+        <v>0.001145725491852218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,87 +1278,87 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.93205066666667</v>
+        <v>41.199583</v>
       </c>
       <c r="H14">
-        <v>104.796152</v>
+        <v>82.39916600000001</v>
       </c>
       <c r="I14">
-        <v>0.1932987049966545</v>
+        <v>0.1921639865327472</v>
       </c>
       <c r="J14">
-        <v>0.2068584217267746</v>
+        <v>0.1381384946340305</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.107799</v>
+        <v>3.2967085</v>
       </c>
       <c r="N14">
-        <v>0.215598</v>
+        <v>6.593417000000001</v>
       </c>
       <c r="O14">
-        <v>0.01048761982395164</v>
+        <v>0.08107605878506954</v>
       </c>
       <c r="P14">
-        <v>0.008148456272733026</v>
+        <v>0.05555201876985093</v>
       </c>
       <c r="Q14">
-        <v>3.765640129816</v>
+        <v>135.8230154725555</v>
       </c>
       <c r="R14">
-        <v>22.593840778896</v>
+        <v>543.292061890222</v>
       </c>
       <c r="S14">
-        <v>0.002027243330467094</v>
+        <v>0.01557989866850233</v>
       </c>
       <c r="T14">
-        <v>0.00168557680408719</v>
+        <v>0.007673872246748613</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.93205066666667</v>
+        <v>41.199583</v>
       </c>
       <c r="H15">
-        <v>104.796152</v>
+        <v>82.39916600000001</v>
       </c>
       <c r="I15">
-        <v>0.1932987049966545</v>
+        <v>0.1921639865327472</v>
       </c>
       <c r="J15">
-        <v>0.2068584217267746</v>
+        <v>0.1381384946340305</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.630111</v>
+        <v>1.327303666666667</v>
       </c>
       <c r="N15">
-        <v>7.890333</v>
+        <v>3.981911</v>
       </c>
       <c r="O15">
-        <v>0.2558799642185295</v>
+        <v>0.03264242201101645</v>
       </c>
       <c r="P15">
-        <v>0.2982125688911881</v>
+        <v>0.03354909823114113</v>
       </c>
       <c r="Q15">
-        <v>91.87517071095733</v>
+        <v>54.68435758103767</v>
       </c>
       <c r="R15">
-        <v>826.8765363986161</v>
+        <v>328.1061454862261</v>
       </c>
       <c r="S15">
-        <v>0.04946126571803205</v>
+        <v>0.006272697943721217</v>
       </c>
       <c r="T15">
-        <v>0.06168778133991821</v>
+        <v>0.004634421925979051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.93205066666667</v>
+        <v>41.199583</v>
       </c>
       <c r="H16">
-        <v>104.796152</v>
+        <v>82.39916600000001</v>
       </c>
       <c r="I16">
-        <v>0.1932987049966545</v>
+        <v>0.1921639865327472</v>
       </c>
       <c r="J16">
-        <v>0.2068584217267746</v>
+        <v>0.1381384946340305</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.472689666666667</v>
+        <v>35.14003366666666</v>
       </c>
       <c r="N16">
-        <v>7.418069</v>
+        <v>105.420101</v>
       </c>
       <c r="O16">
-        <v>0.2405646542789237</v>
+        <v>0.8641999847023141</v>
       </c>
       <c r="P16">
-        <v>0.2803635046457592</v>
+        <v>0.888204011587858</v>
       </c>
       <c r="Q16">
-        <v>86.37612071894311</v>
+        <v>1447.754733672627</v>
       </c>
       <c r="R16">
-        <v>777.3850864704881</v>
+        <v>8686.528402035767</v>
       </c>
       <c r="S16">
-        <v>0.04650083614008386</v>
+        <v>0.1660681142219358</v>
       </c>
       <c r="T16">
-        <v>0.05799555208080898</v>
+        <v>0.1226951650886537</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.0445155</v>
+        <v>41.199583</v>
       </c>
       <c r="H17">
-        <v>70.08903100000001</v>
+        <v>82.39916600000001</v>
       </c>
       <c r="I17">
-        <v>0.1939210362433495</v>
+        <v>0.1921639865327472</v>
       </c>
       <c r="J17">
-        <v>0.1383496059380022</v>
+        <v>0.1381384946340305</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.269519</v>
+        <v>0.8978776666666667</v>
       </c>
       <c r="N17">
-        <v>8.539038</v>
+        <v>2.693633</v>
       </c>
       <c r="O17">
-        <v>0.4153757651104201</v>
+        <v>0.02208153450159992</v>
       </c>
       <c r="P17">
-        <v>0.3227301633327102</v>
+        <v>0.02269487141114992</v>
       </c>
       <c r="Q17">
-        <v>149.6232247730445</v>
+        <v>36.99218545167967</v>
       </c>
       <c r="R17">
-        <v>598.492899092178</v>
+        <v>221.953112710078</v>
       </c>
       <c r="S17">
-        <v>0.08055009880058679</v>
+        <v>0.004243275698587842</v>
       </c>
       <c r="T17">
-        <v>0.04464959092138753</v>
+        <v>0.003135035372649145</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>9.469416666666666</v>
+      </c>
+      <c r="H18">
+        <v>28.40825</v>
+      </c>
+      <c r="I18">
+        <v>0.04416745812224131</v>
+      </c>
+      <c r="J18">
+        <v>0.04762515302869929</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>35.0445155</v>
-      </c>
-      <c r="H18">
-        <v>70.08903100000001</v>
-      </c>
-      <c r="I18">
-        <v>0.1939210362433495</v>
-      </c>
-      <c r="J18">
-        <v>0.1383496059380022</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7985720000000001</v>
+        <v>3.2967085</v>
       </c>
       <c r="N18">
-        <v>2.395716</v>
+        <v>6.593417000000001</v>
       </c>
       <c r="O18">
-        <v>0.0776919965681751</v>
+        <v>0.08107605878506954</v>
       </c>
       <c r="P18">
-        <v>0.09054530685760941</v>
+        <v>0.05555201876985093</v>
       </c>
       <c r="Q18">
-        <v>27.985568831866</v>
+        <v>31.21790641504166</v>
       </c>
       <c r="R18">
-        <v>167.913412991196</v>
+        <v>187.30743849025</v>
       </c>
       <c r="S18">
-        <v>0.01506611248231527</v>
+        <v>0.003580923431105934</v>
       </c>
       <c r="T18">
-        <v>0.01252690752328575</v>
+        <v>0.002645673394967326</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.0445155</v>
+        <v>9.469416666666666</v>
       </c>
       <c r="H19">
-        <v>70.08903100000001</v>
+        <v>28.40825</v>
       </c>
       <c r="I19">
-        <v>0.1939210362433495</v>
+        <v>0.04416745812224131</v>
       </c>
       <c r="J19">
-        <v>0.1383496059380022</v>
+        <v>0.04762515302869929</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.107799</v>
+        <v>1.327303666666667</v>
       </c>
       <c r="N19">
-        <v>0.215598</v>
+        <v>3.981911</v>
       </c>
       <c r="O19">
-        <v>0.01048761982395164</v>
+        <v>0.03264242201101645</v>
       </c>
       <c r="P19">
-        <v>0.008148456272733026</v>
+        <v>0.03354909823114113</v>
       </c>
       <c r="Q19">
-        <v>3.7777637263845</v>
+        <v>12.56879146286111</v>
       </c>
       <c r="R19">
-        <v>15.111054905538</v>
+        <v>113.11912316575</v>
       </c>
       <c r="S19">
-        <v>0.002033770103986996</v>
+        <v>0.001441732807180097</v>
       </c>
       <c r="T19">
-        <v>0.001127335714335656</v>
+        <v>0.001597780937232961</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>35.0445155</v>
+        <v>9.469416666666666</v>
       </c>
       <c r="H20">
-        <v>70.08903100000001</v>
+        <v>28.40825</v>
       </c>
       <c r="I20">
-        <v>0.1939210362433495</v>
+        <v>0.04416745812224131</v>
       </c>
       <c r="J20">
-        <v>0.1383496059380022</v>
+        <v>0.04762515302869929</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.630111</v>
+        <v>35.14003366666666</v>
       </c>
       <c r="N20">
-        <v>7.890333</v>
+        <v>105.420101</v>
       </c>
       <c r="O20">
-        <v>0.2558799642185295</v>
+        <v>0.8641999847023141</v>
       </c>
       <c r="P20">
-        <v>0.2982125688911881</v>
+        <v>0.888204011587858</v>
       </c>
       <c r="Q20">
-        <v>92.1709657062205</v>
+        <v>332.755620470361</v>
       </c>
       <c r="R20">
-        <v>553.025794237323</v>
+        <v>2994.80058423325</v>
       </c>
       <c r="S20">
-        <v>0.04962050781516843</v>
+        <v>0.03816951663358104</v>
       </c>
       <c r="T20">
-        <v>0.0412575913918552</v>
+        <v>0.04230085197257633</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>35.0445155</v>
+        <v>9.469416666666666</v>
       </c>
       <c r="H21">
-        <v>70.08903100000001</v>
+        <v>28.40825</v>
       </c>
       <c r="I21">
-        <v>0.1939210362433495</v>
+        <v>0.04416745812224131</v>
       </c>
       <c r="J21">
-        <v>0.1383496059380022</v>
+        <v>0.04762515302869929</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.472689666666667</v>
+        <v>0.8978776666666667</v>
       </c>
       <c r="N21">
-        <v>7.418069</v>
+        <v>2.693633</v>
       </c>
       <c r="O21">
-        <v>0.2405646542789237</v>
+        <v>0.02208153450159992</v>
       </c>
       <c r="P21">
-        <v>0.2803635046457592</v>
+        <v>0.02269487141114992</v>
       </c>
       <c r="Q21">
-        <v>86.65421135018984</v>
+        <v>8.50237774136111</v>
       </c>
       <c r="R21">
-        <v>519.9252681011391</v>
+        <v>76.52139967225</v>
       </c>
       <c r="S21">
-        <v>0.04665054704129201</v>
+        <v>0.0009752852503742414</v>
       </c>
       <c r="T21">
-        <v>0.03878818038713803</v>
+        <v>0.001080846723922668</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9532976666666668</v>
+        <v>42.86626666666666</v>
       </c>
       <c r="H22">
-        <v>2.859893</v>
+        <v>128.5988</v>
       </c>
       <c r="I22">
-        <v>0.005275132748471503</v>
+        <v>0.1999377685556304</v>
       </c>
       <c r="J22">
-        <v>0.00564517819592699</v>
+        <v>0.2155901024986436</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.269519</v>
+        <v>3.2967085</v>
       </c>
       <c r="N22">
-        <v>8.539038</v>
+        <v>6.593417000000001</v>
       </c>
       <c r="O22">
-        <v>0.4153757651104201</v>
+        <v>0.08107605878506954</v>
       </c>
       <c r="P22">
-        <v>0.3227301633327102</v>
+        <v>0.05555201876985093</v>
       </c>
       <c r="Q22">
-        <v>4.070122500489001</v>
+        <v>141.3175856832667</v>
       </c>
       <c r="R22">
-        <v>24.420735002934</v>
+        <v>847.9055140995999</v>
       </c>
       <c r="S22">
-        <v>0.002191162301455384</v>
+        <v>0.01621016627677192</v>
       </c>
       <c r="T22">
-        <v>0.001821869281213772</v>
+        <v>0.01197646542059874</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9532976666666668</v>
+        <v>42.86626666666666</v>
       </c>
       <c r="H23">
-        <v>2.859893</v>
+        <v>128.5988</v>
       </c>
       <c r="I23">
-        <v>0.005275132748471503</v>
+        <v>0.1999377685556304</v>
       </c>
       <c r="J23">
-        <v>0.00564517819592699</v>
+        <v>0.2155901024986436</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,43 +1863,43 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7985720000000001</v>
+        <v>1.327303666666667</v>
       </c>
       <c r="N23">
-        <v>2.395716</v>
+        <v>3.981911</v>
       </c>
       <c r="O23">
-        <v>0.0776919965681751</v>
+        <v>0.03264242201101645</v>
       </c>
       <c r="P23">
-        <v>0.09054530685760941</v>
+        <v>0.03354909823114113</v>
       </c>
       <c r="Q23">
-        <v>0.7612768242653335</v>
+        <v>56.89655292297777</v>
       </c>
       <c r="R23">
-        <v>6.851491418388002</v>
+        <v>512.0689763068</v>
       </c>
       <c r="S23">
-        <v>0.0004098355953909161</v>
+        <v>0.006526453017133821</v>
       </c>
       <c r="T23">
-        <v>0.0005111443920160952</v>
+        <v>0.007232853526388781</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9532976666666668</v>
+        <v>42.86626666666666</v>
       </c>
       <c r="H24">
-        <v>2.859893</v>
+        <v>128.5988</v>
       </c>
       <c r="I24">
-        <v>0.005275132748471503</v>
+        <v>0.1999377685556304</v>
       </c>
       <c r="J24">
-        <v>0.00564517819592699</v>
+        <v>0.2155901024986436</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.107799</v>
+        <v>35.14003366666666</v>
       </c>
       <c r="N24">
-        <v>0.215598</v>
+        <v>105.420101</v>
       </c>
       <c r="O24">
-        <v>0.01048761982395164</v>
+        <v>0.8641999847023141</v>
       </c>
       <c r="P24">
-        <v>0.008148456272733026</v>
+        <v>0.888204011587858</v>
       </c>
       <c r="Q24">
-        <v>0.102764535169</v>
+        <v>1506.322053830977</v>
       </c>
       <c r="R24">
-        <v>0.6165872110140002</v>
+        <v>13556.8984844788</v>
       </c>
       <c r="S24">
-        <v>5.532358678684622E-05</v>
+        <v>0.1727862165271906</v>
       </c>
       <c r="T24">
-        <v>4.599948768129698E-05</v>
+        <v>0.1914879938979328</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9532976666666668</v>
+        <v>42.86626666666666</v>
       </c>
       <c r="H25">
-        <v>2.859893</v>
+        <v>128.5988</v>
       </c>
       <c r="I25">
-        <v>0.005275132748471503</v>
+        <v>0.1999377685556304</v>
       </c>
       <c r="J25">
-        <v>0.00564517819592699</v>
+        <v>0.2155901024986436</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.630111</v>
+        <v>0.8978776666666667</v>
       </c>
       <c r="N25">
-        <v>7.890333</v>
+        <v>2.693633</v>
       </c>
       <c r="O25">
-        <v>0.2558799642185295</v>
+        <v>0.02208153450159992</v>
       </c>
       <c r="P25">
-        <v>0.2982125688911881</v>
+        <v>0.02269487141114992</v>
       </c>
       <c r="Q25">
-        <v>2.507278679374334</v>
+        <v>38.48866349337777</v>
       </c>
       <c r="R25">
-        <v>22.565508114369</v>
+        <v>346.3979714404</v>
       </c>
       <c r="S25">
-        <v>0.001349800778926882</v>
+        <v>0.004414932734534052</v>
       </c>
       <c r="T25">
-        <v>0.001683463091655911</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.9532976666666668</v>
-      </c>
-      <c r="H26">
-        <v>2.859893</v>
-      </c>
-      <c r="I26">
-        <v>0.005275132748471503</v>
-      </c>
-      <c r="J26">
-        <v>0.00564517819592699</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.472689666666667</v>
-      </c>
-      <c r="N26">
-        <v>7.418069</v>
-      </c>
-      <c r="O26">
-        <v>0.2405646542789237</v>
-      </c>
-      <c r="P26">
-        <v>0.2803635046457592</v>
-      </c>
-      <c r="Q26">
-        <v>2.357209289624111</v>
-      </c>
-      <c r="R26">
-        <v>21.214883606617</v>
-      </c>
-      <c r="S26">
-        <v>0.001269010485911476</v>
-      </c>
-      <c r="T26">
-        <v>0.001582701943359915</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>3.964802333333334</v>
-      </c>
-      <c r="H27">
-        <v>11.894407</v>
-      </c>
-      <c r="I27">
-        <v>0.0219394837112258</v>
-      </c>
-      <c r="J27">
-        <v>0.02347851722070768</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>4.269519</v>
-      </c>
-      <c r="N27">
-        <v>8.539038</v>
-      </c>
-      <c r="O27">
-        <v>0.4153757651104201</v>
-      </c>
-      <c r="P27">
-        <v>0.3227301633327102</v>
-      </c>
-      <c r="Q27">
-        <v>16.927798893411</v>
-      </c>
-      <c r="R27">
-        <v>101.566793360466</v>
-      </c>
-      <c r="S27">
-        <v>0.009113129832678013</v>
-      </c>
-      <c r="T27">
-        <v>0.00757722569744884</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>3.964802333333334</v>
-      </c>
-      <c r="H28">
-        <v>11.894407</v>
-      </c>
-      <c r="I28">
-        <v>0.0219394837112258</v>
-      </c>
-      <c r="J28">
-        <v>0.02347851722070768</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.7985720000000001</v>
-      </c>
-      <c r="N28">
-        <v>2.395716</v>
-      </c>
-      <c r="O28">
-        <v>0.0776919965681751</v>
-      </c>
-      <c r="P28">
-        <v>0.09054530685760941</v>
-      </c>
-      <c r="Q28">
-        <v>3.166180128934667</v>
-      </c>
-      <c r="R28">
-        <v>28.495621160412</v>
-      </c>
-      <c r="S28">
-        <v>0.001704522293200088</v>
-      </c>
-      <c r="T28">
-        <v>0.002125869546310644</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>3.964802333333334</v>
-      </c>
-      <c r="H29">
-        <v>11.894407</v>
-      </c>
-      <c r="I29">
-        <v>0.0219394837112258</v>
-      </c>
-      <c r="J29">
-        <v>0.02347851722070768</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.5</v>
-      </c>
-      <c r="M29">
-        <v>0.107799</v>
-      </c>
-      <c r="N29">
-        <v>0.215598</v>
-      </c>
-      <c r="O29">
-        <v>0.01048761982395164</v>
-      </c>
-      <c r="P29">
-        <v>0.008148456272733026</v>
-      </c>
-      <c r="Q29">
-        <v>0.427401726731</v>
-      </c>
-      <c r="R29">
-        <v>2.564410360386</v>
-      </c>
-      <c r="S29">
-        <v>0.0002300929642971157</v>
-      </c>
-      <c r="T29">
-        <v>0.0001913136709215459</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>3.964802333333334</v>
-      </c>
-      <c r="H30">
-        <v>11.894407</v>
-      </c>
-      <c r="I30">
-        <v>0.0219394837112258</v>
-      </c>
-      <c r="J30">
-        <v>0.02347851722070768</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.630111</v>
-      </c>
-      <c r="N30">
-        <v>7.890333</v>
-      </c>
-      <c r="O30">
-        <v>0.2558799642185295</v>
-      </c>
-      <c r="P30">
-        <v>0.2982125688911881</v>
-      </c>
-      <c r="Q30">
-        <v>10.42787022972567</v>
-      </c>
-      <c r="R30">
-        <v>93.85083206753102</v>
-      </c>
-      <c r="S30">
-        <v>0.005613874307001468</v>
-      </c>
-      <c r="T30">
-        <v>0.007001588934143236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>3.964802333333334</v>
-      </c>
-      <c r="H31">
-        <v>11.894407</v>
-      </c>
-      <c r="I31">
-        <v>0.0219394837112258</v>
-      </c>
-      <c r="J31">
-        <v>0.02347851722070768</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.472689666666667</v>
-      </c>
-      <c r="N31">
-        <v>7.418069</v>
-      </c>
-      <c r="O31">
-        <v>0.2405646542789237</v>
-      </c>
-      <c r="P31">
-        <v>0.2803635046457592</v>
-      </c>
-      <c r="Q31">
-        <v>9.803725760009224</v>
-      </c>
-      <c r="R31">
-        <v>88.233531840083</v>
-      </c>
-      <c r="S31">
-        <v>0.005277864314049112</v>
-      </c>
-      <c r="T31">
-        <v>0.006582519371883416</v>
+        <v>0.004892789653723349</v>
       </c>
     </row>
   </sheetData>
